--- a/natmiOut/OldD7/LR-pairs_lrc2p/Mmrn2-Cd93.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Mmrn2-Cd93.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.1991002263774</v>
+        <v>41.006619</v>
       </c>
       <c r="H2">
-        <v>40.1991002263774</v>
+        <v>123.019857</v>
       </c>
       <c r="I2">
-        <v>0.9357413678075794</v>
+        <v>0.9349081063755518</v>
       </c>
       <c r="J2">
-        <v>0.9357413678075794</v>
+        <v>0.9349081063755517</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.623562523146</v>
+        <v>169.629438</v>
       </c>
       <c r="N2">
-        <v>162.623562523146</v>
+        <v>508.888314</v>
       </c>
       <c r="O2">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484701</v>
       </c>
       <c r="P2">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484702</v>
       </c>
       <c r="Q2">
-        <v>6537.320889038499</v>
+        <v>6955.929735250122</v>
       </c>
       <c r="R2">
-        <v>6537.320889038499</v>
+        <v>62603.3676172511</v>
       </c>
       <c r="S2">
-        <v>0.7075242007327414</v>
+        <v>0.6944850171332723</v>
       </c>
       <c r="T2">
-        <v>0.7075242007327414</v>
+        <v>0.6944850171332723</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.1991002263774</v>
+        <v>41.006619</v>
       </c>
       <c r="H3">
-        <v>40.1991002263774</v>
+        <v>123.019857</v>
       </c>
       <c r="I3">
-        <v>0.9357413678075794</v>
+        <v>0.9349081063755518</v>
       </c>
       <c r="J3">
-        <v>0.9357413678075794</v>
+        <v>0.9349081063755517</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.934279577481839</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N3">
-        <v>0.934279577481839</v>
+        <v>2.954627</v>
       </c>
       <c r="O3">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="P3">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="Q3">
-        <v>37.55719837464998</v>
+        <v>40.38642122537101</v>
       </c>
       <c r="R3">
-        <v>37.55719837464998</v>
+        <v>363.477791028339</v>
       </c>
       <c r="S3">
-        <v>0.004064757905083272</v>
+        <v>0.004032209281027879</v>
       </c>
       <c r="T3">
-        <v>0.004064757905083272</v>
+        <v>0.004032209281027878</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.1991002263774</v>
+        <v>41.006619</v>
       </c>
       <c r="H4">
-        <v>40.1991002263774</v>
+        <v>123.019857</v>
       </c>
       <c r="I4">
-        <v>0.9357413678075794</v>
+        <v>0.9349081063755518</v>
       </c>
       <c r="J4">
-        <v>0.9357413678075794</v>
+        <v>0.9349081063755517</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>49.9783065596078</v>
+        <v>54.620752</v>
       </c>
       <c r="N4">
-        <v>49.9783065596078</v>
+        <v>163.862256</v>
       </c>
       <c r="O4">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="P4">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="Q4">
-        <v>2009.082954534289</v>
+        <v>2239.812366757488</v>
       </c>
       <c r="R4">
-        <v>2009.082954534289</v>
+        <v>20158.31130081739</v>
       </c>
       <c r="S4">
-        <v>0.2174399629053113</v>
+        <v>0.2236244742410349</v>
       </c>
       <c r="T4">
-        <v>0.2174399629053113</v>
+        <v>0.2236244742410348</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.1991002263774</v>
+        <v>41.006619</v>
       </c>
       <c r="H5">
-        <v>40.1991002263774</v>
+        <v>123.019857</v>
       </c>
       <c r="I5">
-        <v>0.9357413678075794</v>
+        <v>0.9349081063755518</v>
       </c>
       <c r="J5">
-        <v>0.9357413678075794</v>
+        <v>0.9349081063755517</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.5428474724094</v>
+        <v>3.118221666666667</v>
       </c>
       <c r="N5">
-        <v>1.5428474724094</v>
+        <v>9.354665000000001</v>
       </c>
       <c r="O5">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="P5">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="Q5">
-        <v>62.02108017739851</v>
+        <v>127.867727842545</v>
       </c>
       <c r="R5">
-        <v>62.02108017739851</v>
+        <v>1150.809550582905</v>
       </c>
       <c r="S5">
-        <v>0.006712446264443534</v>
+        <v>0.01276640572021668</v>
       </c>
       <c r="T5">
-        <v>0.006712446264443534</v>
+        <v>0.01276640572021668</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.0676591289162</v>
+        <v>2.068862333333333</v>
       </c>
       <c r="H6">
-        <v>2.0676591289162</v>
+        <v>6.206586999999999</v>
       </c>
       <c r="I6">
-        <v>0.04813028576650383</v>
+        <v>0.0471679015138598</v>
       </c>
       <c r="J6">
-        <v>0.04813028576650383</v>
+        <v>0.04716790151385979</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>162.623562523146</v>
+        <v>169.629438</v>
       </c>
       <c r="N6">
-        <v>162.623562523146</v>
+        <v>508.888314</v>
       </c>
       <c r="O6">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484701</v>
       </c>
       <c r="P6">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484702</v>
       </c>
       <c r="Q6">
-        <v>336.2500936278572</v>
+        <v>350.939954902702</v>
       </c>
       <c r="R6">
-        <v>336.2500936278572</v>
+        <v>3158.459594124317</v>
       </c>
       <c r="S6">
-        <v>0.0363918312682598</v>
+        <v>0.03503809697189084</v>
       </c>
       <c r="T6">
-        <v>0.0363918312682598</v>
+        <v>0.03503809697189084</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.0676591289162</v>
+        <v>2.068862333333333</v>
       </c>
       <c r="H7">
-        <v>2.0676591289162</v>
+        <v>6.206586999999999</v>
       </c>
       <c r="I7">
-        <v>0.04813028576650383</v>
+        <v>0.0471679015138598</v>
       </c>
       <c r="J7">
-        <v>0.04813028576650383</v>
+        <v>0.04716790151385979</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.934279577481839</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N7">
-        <v>0.934279577481839</v>
+        <v>2.954627</v>
       </c>
       <c r="O7">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="P7">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="Q7">
-        <v>1.931771697340295</v>
+        <v>2.037572169783223</v>
       </c>
       <c r="R7">
-        <v>1.931771697340295</v>
+        <v>18.338149528049</v>
       </c>
       <c r="S7">
-        <v>0.0002090726842628413</v>
+        <v>0.000203432667824569</v>
       </c>
       <c r="T7">
-        <v>0.0002090726842628413</v>
+        <v>0.0002034326678245689</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.0676591289162</v>
+        <v>2.068862333333333</v>
       </c>
       <c r="H8">
-        <v>2.0676591289162</v>
+        <v>6.206586999999999</v>
       </c>
       <c r="I8">
-        <v>0.04813028576650383</v>
+        <v>0.0471679015138598</v>
       </c>
       <c r="J8">
-        <v>0.04813028576650383</v>
+        <v>0.04716790151385979</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>49.9783065596078</v>
+        <v>54.620752</v>
       </c>
       <c r="N8">
-        <v>49.9783065596078</v>
+        <v>163.862256</v>
       </c>
       <c r="O8">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="P8">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="Q8">
-        <v>103.3381018057455</v>
+        <v>113.0028164311413</v>
       </c>
       <c r="R8">
-        <v>103.3381018057455</v>
+        <v>1017.025347880272</v>
       </c>
       <c r="S8">
-        <v>0.01118412406647248</v>
+        <v>0.01128228229615193</v>
       </c>
       <c r="T8">
-        <v>0.01118412406647248</v>
+        <v>0.01128228229615192</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.0676591289162</v>
+        <v>2.068862333333333</v>
       </c>
       <c r="H9">
-        <v>2.0676591289162</v>
+        <v>6.206586999999999</v>
       </c>
       <c r="I9">
-        <v>0.04813028576650383</v>
+        <v>0.0471679015138598</v>
       </c>
       <c r="J9">
-        <v>0.04813028576650383</v>
+        <v>0.04716790151385979</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.5428474724094</v>
+        <v>3.118221666666667</v>
       </c>
       <c r="N9">
-        <v>1.5428474724094</v>
+        <v>9.354665000000001</v>
       </c>
       <c r="O9">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="P9">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="Q9">
-        <v>3.190082660852581</v>
+        <v>6.451171353150555</v>
       </c>
       <c r="R9">
-        <v>3.190082660852581</v>
+        <v>58.06054217835499</v>
       </c>
       <c r="S9">
-        <v>0.0003452577475087145</v>
+        <v>0.0006440895779924577</v>
       </c>
       <c r="T9">
-        <v>0.0003452577475087145</v>
+        <v>0.0006440895779924575</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.692867748254222</v>
+        <v>0.7861760000000001</v>
       </c>
       <c r="H10">
-        <v>0.692867748254222</v>
+        <v>2.358528</v>
       </c>
       <c r="I10">
-        <v>0.01612834642591675</v>
+        <v>0.01792399211058844</v>
       </c>
       <c r="J10">
-        <v>0.01612834642591675</v>
+        <v>0.01792399211058843</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>162.623562523146</v>
+        <v>169.629438</v>
       </c>
       <c r="N10">
-        <v>162.623562523146</v>
+        <v>508.888314</v>
       </c>
       <c r="O10">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484701</v>
       </c>
       <c r="P10">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484702</v>
       </c>
       <c r="Q10">
-        <v>112.6766215784919</v>
+        <v>133.358593049088</v>
       </c>
       <c r="R10">
-        <v>112.6766215784919</v>
+        <v>1200.227337441792</v>
       </c>
       <c r="S10">
-        <v>0.01219481772070598</v>
+        <v>0.01331461764330699</v>
       </c>
       <c r="T10">
-        <v>0.01219481772070598</v>
+        <v>0.01331461764330699</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.692867748254222</v>
+        <v>0.7861760000000001</v>
       </c>
       <c r="H11">
-        <v>0.692867748254222</v>
+        <v>2.358528</v>
       </c>
       <c r="I11">
-        <v>0.01612834642591675</v>
+        <v>0.01792399211058844</v>
       </c>
       <c r="J11">
-        <v>0.01612834642591675</v>
+        <v>0.01792399211058843</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.934279577481839</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N11">
-        <v>0.934279577481839</v>
+        <v>2.954627</v>
       </c>
       <c r="O11">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="P11">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="Q11">
-        <v>0.6473321870897477</v>
+        <v>0.7742856121173336</v>
       </c>
       <c r="R11">
-        <v>0.6473321870897477</v>
+        <v>6.968570509056002</v>
       </c>
       <c r="S11">
-        <v>7.005976852799309E-05</v>
+        <v>7.730523122916752E-05</v>
       </c>
       <c r="T11">
-        <v>7.005976852799309E-05</v>
+        <v>7.730523122916751E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.692867748254222</v>
+        <v>0.7861760000000001</v>
       </c>
       <c r="H12">
-        <v>0.692867748254222</v>
+        <v>2.358528</v>
       </c>
       <c r="I12">
-        <v>0.01612834642591675</v>
+        <v>0.01792399211058844</v>
       </c>
       <c r="J12">
-        <v>0.01612834642591675</v>
+        <v>0.01792399211058843</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>49.9783065596078</v>
+        <v>54.620752</v>
       </c>
       <c r="N12">
-        <v>49.9783065596078</v>
+        <v>163.862256</v>
       </c>
       <c r="O12">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="P12">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="Q12">
-        <v>34.62835672751467</v>
+        <v>42.94152432435201</v>
       </c>
       <c r="R12">
-        <v>34.62835672751467</v>
+        <v>386.473718919168</v>
       </c>
       <c r="S12">
-        <v>0.003747773871312374</v>
+        <v>0.00428731260826258</v>
       </c>
       <c r="T12">
-        <v>0.003747773871312374</v>
+        <v>0.004287312608262579</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.692867748254222</v>
+        <v>0.7861760000000001</v>
       </c>
       <c r="H13">
-        <v>0.692867748254222</v>
+        <v>2.358528</v>
       </c>
       <c r="I13">
-        <v>0.01612834642591675</v>
+        <v>0.01792399211058844</v>
       </c>
       <c r="J13">
-        <v>0.01612834642591675</v>
+        <v>0.01792399211058843</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.5428474724094</v>
+        <v>3.118221666666667</v>
       </c>
       <c r="N13">
-        <v>1.5428474724094</v>
+        <v>9.354665000000001</v>
       </c>
       <c r="O13">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="P13">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="Q13">
-        <v>1.068989254108019</v>
+        <v>2.451471037013334</v>
       </c>
       <c r="R13">
-        <v>1.068989254108019</v>
+        <v>22.06323933312</v>
       </c>
       <c r="S13">
-        <v>0.0001156950653704115</v>
+        <v>0.0002447566277897008</v>
       </c>
       <c r="T13">
-        <v>0.0001156950653704115</v>
+        <v>0.0002447566277897008</v>
       </c>
     </row>
   </sheetData>
